--- a/pythonProject(Crawling)/인텔.xlsx
+++ b/pythonProject(Crawling)/인텔.xlsx
@@ -455,425 +455,425 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1시간 전</t>
+          <t>14분 전</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PC사랑</t>
+          <t>IT조선</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>삼성 갤럭시북 8월 22일(일) 단 하루 특가! NT750XDZ-A71A, 11번가 긴급공수 ...</t>
+          <t>인텔 차세대GPU, 대만 TSMC 통해 생산</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>최신 인텔 코어 11세대 코어 i7 CPU 타이거레이크와 아이리스 XE 그래픽 카드 탑재로 성능 또한 더 업그레이드되었다. 문서 편집부터 온라인 수업, 디자인&amp;영상 제작 업무가 가능하며, 롤(리그 오브 레전드), 배그...</t>
+          <t>인텔이 반도체 경쟁사 대만 TSMC를 통해 자사 그래픽프로세서(GPU)와 서버용 CPU를 생산할 계획이다. 인텔은 19일(현지시각) 자사 프로세서 아키텍처 로드맵 정보를 공유하는 ‘아키텍처 데이'를 통해...</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1시간 전</t>
+          <t>36분 전</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>쿠키뉴스</t>
+          <t>위키트리</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>글로벌 반도체株 희비…삼성전자 추락, 엔비디아 고공행진</t>
+          <t>"3년 만에…" 삼성전자, 이재용 부회장 출소하자마자 암청난 소식 전했다</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>반면 비메모리 반도체는 인텔, 엔비디아, AMD가 점유율을 차지하고 있다. 이 가운데 엔비디아는 이른바 GPU로 불리는 그래픽처리장치를 활용한 반도체 공급을 주요 사업으로 하고 있다. 원래 엔비디아는 게임용 GPU를...</t>
+          <t>반도체 시장조사기관 IC인사이츠는 지난 19일 "삼성전자가 올해 2분기 반도체 사업에서 매출 202억9700만 달러(한화 약 24조 원)를 기록하며 인텔을 제쳤다"라고 발표했다. 기존에 1위였던 은 193억400만 달러(약...</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2시간 전</t>
+          <t>42분 전</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>한국경제언론사 선정</t>
+          <t>한국일보</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>'아시아 시총 1위' 된 TSMC vs '7만전자'로 내려앉은 삼성 [박신영의 일렉트로...</t>
+          <t>"삼성전자, 3분기도 글로벌 반도체 1위 유력" 전망… '주가 반등' 힘 될까</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>이재용 삼성전자 부회장이 지난 1월 구속된 이후 인텔과 TSMC 등 경쟁 기업들이 공격적인 투자에 나설 때 적극적으로 대응하지 못했다. 특히 인텔과 TSMC가 삼성전자의 강점인 첨단 미세공정에 투자를 확대하면서...</t>
+          <t>미국의 인텔(약 193억 달러)을 제치고 글로벌 1위 자리를 꿰찼다. 삼성전자가 분기 매출에서 인텔을 이긴 건 2018년 3분기 이후 11분기 만이다. IC인사이츠는 3분기에도 삼성전자가 223억 달러 매출로 (188억 달러)과의...</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4시간 전</t>
+          <t>56분 전</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>한국경제TV</t>
+          <t>아이뉴스24언론사 선정</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>베트남, 코로나 장기화로 외국인직접투자 썰물 우려 [KVINA]</t>
+          <t>美의 중국 반도체 산업 압박 강화…시장 판도는?</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>인텔베트남 호티투옌 홍보국장은 최근 경제 관련 회의에서 "베트남에 진출한 많은 다국적 기업들은... 인텔베트남에 따르면 7월 15일부터 8월 15일까지 총 1,400억 동(VND) 미화 약 6백만 달러 이상의 예상되지 않던 비용이...</t>
+          <t>그동안 중국의 반도체 공장을 늘려왔던 삼성전자, 인텔, 애플, TSMC 등은 미국의 압박에 미국 반도체 공장... 중국내 외국 기업의 반도체 생산물량은 800억달러이며 삼성전자, SK 하이닉스, 등이 여기에 해당한다.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4시간 전</t>
+          <t>1시간 전</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>로봇신문</t>
+          <t>아주경제</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>인텔, "'리얼센스' 스테레오 카메라는 계속 지원"</t>
+          <t>2021년 반도체 쇼크, 1970년대 오일쇼크 닮아가나</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>인텔이 컴퓨터 비전 '리얼센스' 사업을 중단키로 했다는 보도가 나온 이후 처음으로 인텔 앤더스 그루넷-젭슨 CTO가 입장을 밝혔다. 갑작스런 사업 중단 소식에 어리둥절하고 있는 로봇산업계 고객과...</t>
+          <t>자동차 반도체 시장점유율 13%에 달하는 인피니온을 비롯해 ST마이크로일렉트로닉스, 인텔, 엔엑스피(NXP), 텍사스인스트루먼트, 온세미 등 50여개 글로벌 반도체 기업이 위치해있다. 보쉬 중국법인의 쉬다취안 집행...</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6시간 전</t>
+          <t>1시간 전</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>공감신문</t>
+          <t>이데일리언론사 선정</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[공감 10주년 기획특집 딥터뷰] 염승환 "손절보다 보유 종목 재점검 시기"</t>
+          <t>취업논란 일단락 수순?…이재용, 정중동 행보 이어갈 듯</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>내년에 'DDR5'라는 새 반도체가 나오고, '사파이어 래피즈'라는 인텔의 새 중앙처리장치(CPU)도 나온다. 미국 국방부의 클라우드 프로젝트도 내년에 예정돼 있다. 수요 모멘텀들이 대거 기다리고 있는 것이다. 그러니 너무...</t>
+          <t>현재 세계 반도체 시장은 TSMC·인텔 등 글로벌 기업들이 대규모 투자를 이어나가며 날로 경쟁이 치열해지고 있다. 미국과 중국을 중심으로 패권 경쟁까지 벌어지며 ‘3차 세계대전’이라는 말까지 나오는 상황이다. 이...</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>7시간 전</t>
+          <t>3시간 전</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>서울신문</t>
+          <t>아시아경제언론사 선정</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[고든 정의 TECH+] 엔비디아에 도전장 내민 인텔…GPU 시장 왕좌 빼앗을까?</t>
+          <t>[뉴스人사이드]"반도체 패권 되찾겠다" 삼성전자에 도전장…18세에 입사해 CE...</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>인텔이 인텔 아키텍처 데이 2021 행사를 통해 12세대 코어 프로세서인 엘더 레이크, 게이밍 GPU인 알케미스트, 그리고 고성능 연산용 GPU인 폰테 베키오의 아키텍처에 대한 상세한 정보를 공개했습니다. 흥미롭게도...</t>
+          <t>2016년 대만의 TSMC와 한국의 삼성전자에 1위 자리를 내준 미국 반도체 기업 인텔이 다시 세계 반도채 패권을 잡기 위해 고삐를 죄고있다. 팻 겔싱어 인텔 최고경영자(CEO)는 이를 위한 주요 전략으로 인수합병(M&amp;A)을...</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>8시간 전</t>
+          <t>4시간 전</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>헤럴드경제언론사 선정</t>
+          <t>e대한경제</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>이재용의 삼성 vs. 갤싱어의 인텔, 막오르는 ‘반도체 M&amp;A’ 대전 [TNA]</t>
+          <t>반도체 세계 1위 두고 삼성ㆍ인텔 경쟁 격화…“파운드리가 관건”</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>공룡’ 인텔과 치열한 두뇌 싸움이 벌어질 것으로 전망된다. 20일 업계와 외신에 따르면 인텔의 팻 겔싱어 최고경영자(CEO)는 최근 월스트리저널(WSJ)과의 인터뷰에서 “의 부흥을 위해 M&amp;A를 활용할 계획”이라고...</t>
+          <t>글로벌 ‘반도체 공룡’ 삼성전자와 인텔의 경쟁에 불이 붙었다. 올해 2분기 삼성전자는 메모리 반도체 수퍼사이클(장기 호황)에 힘입어 인텔을 제치고 11분기 만에 글로벌 1위 타이틀을 땄다. 하지만 격차가 근소해...</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>8시간 전</t>
+          <t>4시간 전</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>테크M</t>
+          <t>전자신문</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[글로벌] 인텔, PC용 그래픽카드 시장 진출...엔비디아-AMD와의 격전 예고</t>
+          <t>인텔, 차세대 GPU 위탁생산 업체로 TSMC 낙점</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>인텔 아크 /사진=디미닛 제공 인텔이 PC용 그래픽카드 시장에 진출합니다. 지난 17일 인텔은 고성능 그래픽 제품 브랜드 '인텔 아크'를 소개하며 고성능 칩셋 '알케미스트'를 내년 1분기에 출시하겠다고 밝혔습니다....</t>
+          <t>인텔이 고성능 그래픽처리장치(GPU) 위탁생산 업체로 TSMC를 택했다. 초미세 공정 파운드리를 확보하기 전 과도기 동안 TSMC를 적극 활용하는 모양새다. TSMC는 3나노미터(nm) 공정이 적용된 서버용 중앙처리장치...</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>11시간 전</t>
+          <t>4시간 전</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>주간동아언론사 선정</t>
+          <t>전자신문</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>‘염블리’ 염승환 “삼성전자, 또 한 번 ‘줍줍’ 기회 왔다”</t>
+          <t>[사이언스온고지신]양자 위협으로부터 안전한 국가 정보통신 인프라 구축 시급</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>TSMC와 중국의 관계가 부담스러운 미국 입장에서 삼성전자나 인텔이 잘하면 좋을 수밖에 없다. 인텔보다 삼성전자가 좋은데, 그동안 삼성전자에서 불량품이 너무 많이 나왔다. 10개를 만들면 4~5개가 불량이라 맡기질...</t>
+          <t>그러나 현재는 전자보다 작은 양자 상태에서 중첩과 결합 현상을 이용하는 양자 컴퓨터 범용화에 세계적인 정보통신기술(ICT) 기업인 구글, 인텔, IBM 등이 경쟁적으로 연구에 박차를 가하고 있다. 만약 양자컴퓨터가...</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>12시간 전</t>
+          <t>5시간 전</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>미디어펜</t>
+          <t>IT비즈뉴스</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>'비싸도 특별하니까'…식지않는 한정판 인기</t>
+          <t>"이종 코어 탑재한 인텔 엘더레이크, 4분기 출시된다"</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>또 기존 제품 대비 데이터 처리 속도가 약 10% 빠른 인텔 11세대 프로세서 타이거레이크R를 적용했고, 인텔의 내장 그래픽 프로세서 아이리스 엑스이도 장착해, 고화질 영상 작업 및 게임 구동 시 빠른 속도로 쾌적한...</t>
+          <t>라자 코두리 인텔 그래픽그룹 총괄 [source=intel] 인텔이 '2021 인텔 아키텍처 데이'에서 차세대 코어 프로세서인 엘더레이크에 대한 소개와 함께 2종의 새로운 x86 CPU 코어와 2종의 외장 GPU, 2종의 데이터센터용...</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>14시간 전</t>
+          <t>5시간 전</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>헤럴드경제</t>
+          <t>중소기업신문</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>반도체戰 승자 예언? GAA에 답 있다[TNA]</t>
+          <t>삼성전자 반도체 1위 탈환했지만…파운드리가 변수</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>‘막차’는 인텔 정도로, 2023년를 목표로 두고 있다. EUV를 뒤이어 새로운, 더 거대한 진입장벽으로... 현재까진 2강 구도이지만, 인텔도 GAA에 뛰어들겠다고 선언한 상태다. 은 내년부터 EUV를 도입, 4nm에...</t>
+          <t>삼성전자 사옥 세계 반도체 1등 기업이라는 왕좌를 두고 삼성전자와 인텔 간 경쟁이 치열하다. 삼성전자는 메모리 호황에 힘입어 올해 2분기 인텔을 꺾고 11분기 만에 전 세계 반도체 매출 1위 기업이라는 타이틀을...</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>14시간 전</t>
+          <t>5시간 전</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>이데일리언론사 선정</t>
+          <t>로봇신문</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[뉴욕증시]테이퍼링 우려 완화…3대지수 일제히 상승</t>
+          <t>룸서비스까지 다 되는 로봇 호텔, 팁은 주머니 속에 꼬옥 넣어두세요</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>반도체주는 엔비디아(5.14%), AMD(0.92%) 등이 상승한 반면, 마이크론 테크놀러지(-0.07%), 인텔(-0.82%) 등은 하락해 엇갈린 흐름을 보였다. 다우지수에선 시스코(1.66%), 세일즈포스(1.21%), 홈디포(1.96%), 나이키(1.32...</t>
+          <t>사비오크가 구글과 인텔의 투자를 받아 만든 이 인공지능(AI) 로봇 호텔리어는 로비에서부터 손님을 맞이하고, 엘레베이터를 이용해 수건ㆍ물ㆍ칫솔ㆍ베개 등을 객실까지 나르는 등 24시간 내내 쉬는 시간도 없이 아주...</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>15시간 전</t>
+          <t>6시간 전</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>아주경제</t>
+          <t>매일일보</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[위클리人] 돌아온 이재용 삼성전자 부회장...우선 순위는 ‘내부 결속’</t>
+          <t>반도체의 주종이 바뀐다...삼성전자 비메모리 성장세</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>실제 인텔은 올해 3월 파운드리 사업에 다시금 도전하겠다는 내용의 ‘IDM 2.0’을 선언했고, 최근에는 퀄컴과 아마존을 고객사로 받아들였다고 발표했다. 글로벌 파운드리 1위인 TSMC도 올해 4월 1분기 실적 발표 당시...</t>
+          <t>TSMC, 인텔과의 기술경쟁이 첨예한 게이트올어라운드(GAA)공정은 삼성전자가 내년 3나노 1세대 양산에 적용한다. 2023년에는 3나노 2세대 공정에 GAA를 적용한다는 목표다. 삼성전자는 3나노 GAA 1세대 관련 이미 고객사가...</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>15시간 전</t>
+          <t>6시간 전</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>초이스경제</t>
+          <t>이투데이</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>"테이퍼링 우려 완화"...미국증시 3대 지수 '상승'</t>
+          <t>삼성전자, 인텔 제치고 2분기 반도체 매출 1위</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>반도체주 가운데 엔비디아(+5.14%), AMD(+0.92%) 등은 상승했고 마이크론 테크놀러지(-0.07%), 인텔(-0.82%) 등은 하락했다. 필라델피아 반도체 지수는 0.64% 올랐다. 또 다우지수에서는 홈디포(+1.96%), 나이키(+1.32...</t>
+          <t>2018년 3분기 이후 11분기만에 인텔을 제친 것이다. 22일 반도체 시장조사업체 IC인사이츠에 따르면... 10분기 연속 세계 반도체 매출 1위 자리를 지키던 인텔은 전 분기 대비 3% 성장에 그친 193억 달러의 매출을...</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>15시간 전</t>
+          <t>6시간 전</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>머니투데이언론사 선정</t>
+          <t>인사이트</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>왕좌 앉은 삼성, 되찾으려는 인텔...'푸른 피' 전쟁 시작됐다</t>
+          <t>이재용의 삼성전자, 인텔 제치고 세계 반도체 시장 1위 등극</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>삼성전자와 인텔의 반도체 1위 전쟁] '1960년대 후반 '푸른 피'로 태어난 두 혁신 기업 같은 시기에 태어났지만 다른 길을 걸었던 반도체 강자 인텔과 삼성전자가 1위 자리를 놓고 경쟁의 출발선에 섰다. 1968년 7월 미국...</t>
+          <t xml:space="preserve"> 이재용 부회장이 이끄는 삼성전자가 '글로벌 대기업' 인텔을 제쳤다. 삼성전자는 지난 2분기 매출 기준으로 인텔을 추월해 전 세계 반도체 시장 1위 자리를 차지했다. 2018년 3분기 이후 11분기만에 다시 왕좌에...</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>18시간 전</t>
+          <t>6시간 전</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>IT조선</t>
+          <t>조선비즈언론사 선정</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[뉴스브리핑] 8월21일…인텔 반도체 M&amp;A추진·페북 반독점 소송·美가상자산 ...</t>
+          <t>삼성전자, 인텔 체지고 반도체 세계 1위…“3분기 격차 더 벌릴 듯”</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>◇ SK, SK머티리얼즈 품고 첨단소재 파이낸셜스토리 쓴다 ◇ 에픽게임즈, 언리얼 엔진 4.27 출시 ◇ 인텔 CEO, 반도체 M&amp;A 추진 재차 강조 ◇ 美 FTC, 페이스북 반독점 소송 다시 제기 ◇ 美 가상자산 규제 확대 움직임....</t>
+          <t>2분기 반도체 매출 삼성전자 1조원 앞서 향후 파운드리가 순위 결정할 듯 삼성전자와 인텔의 반도체 선두... 2018년 3분기 이후 11분기 만에 인텔을 제치고 1위를 탈환했다. 같은 기간 은 193억 달러(약 22조8400억원)의...</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>T26면 1단</t>
+          <t>7시간 전</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>중앙SUNDAY</t>
+          <t>블로터언론사 선정</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>“반도체 미세공정 2~3나노가 한계, 이젠 3D 소자 연구”</t>
+          <t>[넘버스]삼성전자의 M&amp;A, 이재용 거취에 달린 게 맞나요?</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2022년 본격 양산에 돌입.’(8월 4일) ‘인텔, 2024년에 2나노급 ‘20A’ 반도체 양산해 현재 앞서 있는... 버클리대 첸밍후 교수의 연구를 바탕으로 2011년 인텔이 22㎚에서 핀펫(FinFET·Fin field-effect transistor) 구조를...</t>
+          <t>SK하이닉스의 인텔 낸드사업부 인수(90억 달러) 등이 있죠. 시장조사업체 IC인사이트 자료를 인용하면... 인텔은 ‘IDM 2.0’이란 이름으로 파운드리 산업 진출을 선언했고, SK하이닉스는 낸드사업부 인수로 메모리...</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>21시간 전</t>
+          <t>8시간 전</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>더구루</t>
+          <t>더퍼블릭</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>"자율주행 센서 스타트업 에이아이, 장기 투자 유망주"</t>
+          <t>삼성전자, 2분기 인텔 제치고 글로벌 반도체 시장 왕좌 탈환…SK하이닉스도 2...</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>제너럴모터스(GM)과 인텔, 스바루, 헬라 등이 사모투자에 참여했다. &lt;본보 2021년 2월 18일자 참고 : 'LG·SK 투자' 美 차량용 센서 스타트업, 나스닥 입성 임박&gt; 에이아이는 미국 항공우주국(NASA) 출신 엔지니어가...</t>
+          <t>삼성전자가 올해 2분기 글로벌 반도체 시장에서 인텔을 제치고 11분기만에 1위 자리를 탈환한 것으로... 이는 지난 1분기보다 19% 증가한 수치로, 전 분기 대비 3% 성장에 머무른 은 193억달러(약 22조 7663억원)를...</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>21시간 전</t>
+          <t>8시간 전</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -883,173 +883,173 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>인텔 파트너사, 리막 하이퍼카 '네베라' 지원사격</t>
+          <t>美 주택용 태양광 가격 하락…에너지 저장은 상승</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>프로젝트팀 별도 구성, 네베라 안정성 위한 기술 지원  미국 반도체 기업 인텔의 파트너사 중 하나인 '브라이트스키'(Brightskies)가 크로아티아 고성능 하이퍼 전기차 업체 '리막 오토모빌리'(Rimac Automobili)를 지원하고...</t>
+          <t>미국 에너지세이즈(EnergySage)가 최근 발표한 '솔라 마켓플레이스 인텔 리포트(Solar Marketplace Intel Report)'에 따르면 올해 상반기 주택용 태양광 가격은 평균 2.67달러/W를 기록했다. 전년 동기(2.85달러)보다 6.3...</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>21시간 전</t>
+          <t>9시간 전</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>동아일보</t>
+          <t>시사뉴스</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>[리뷰] 시원한 고성능, 씨게이트 파이어쿠다 530 M.2 NVMe 히트싱크</t>
+          <t>삼성전자, 인텔 제치고 세계 반도체 시장 1위…2분기 23조 매출</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>특히 AMD의 3세대 라이젠 시리즈 및 인텔의 11세대 코어 시리즈를 비롯한 프로세서 제품군, 그리고 콘솔게임기인 플레이스테이션5(PS5)에서 PCIe 4.0 SSD를 본격 지원하면서 이에 부합하는 제품이 다수 출시되고...</t>
+          <t xml:space="preserve"> 삼성전자가 지난 2분기 매출 기준으로 인텔을 추월해 세계 반도체 시장 1위 자리에 올랐다. 2018년 3분기... 반면, 10분기 연속 세계 반도체 매출 1위 자리를 지켜오던 미국의 은 전분기 대비 3% 성장에 그친 193억...</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>22시간 전</t>
+          <t>9시간 전</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>정보통신신문</t>
+          <t>뉴시스언론사 선정</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>인텔 데이터센터, 고성능 컴퓨팅-AI·클라이언트 컴퓨팅용 아키텍처 고도화</t>
+          <t>이재용 복귀 열흘…공식행보 자제속 '반도체·배터리·백신' 다듬질</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>인텔은 '2021 아키텍처 데이'에서 한 세대만에 가장 큰 아키텍처 변화를 발표했다. 이번 발표에서 두 개의 새로운 세대의 x86 코어와 인텔리전트 인텔 스레드 디렉터 워크로드 스케줄러를 탑재한 인텔의 첫...</t>
+          <t>대만 TSMC, 미국 인텔 등이 대규모 투자 계획을 내놓은 파운드리(반도체 위탁생산) 분야에서도 약 20조원 규모의 미국 공장 증설 문제를 매듭지어야 한다. 스마트폰과 가전 사업장이 있는 수원 본사를 찾을 수 있다. 또 이...</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1일 전</t>
+          <t>10시간 전</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>연합인포맥스</t>
+          <t>뉴스1언론사 선정</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>[亞증시-종합] 성장 둔화 우려·中 규제에 일제히 하락</t>
+          <t>이재용, 출소 1주일째 현장경영 고심…반도체로 기울까</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>TSMC는 장 초반 인텔과의 파트너십 관련 소식에 강세를 나타냈지만 연준의 테이퍼링 우려로 반락했다. 그 외에는 훙하이 정밀이 1.5% 올랐고, 미디어텍은 1.7% 내렸다. 본 기사는 인포맥스 금융정보 단말기에서 2시간...</t>
+          <t>삼성전자가 미국의 인텔을 제치고 올해 2분기에 세계 반도체 기업 1위 자리를 탈환했기 때문이다. 시장조사업체 IC인사이츠에 따르면 삼성전자는 올 2분기 반도체 매출 약 203억달러로 193억달러에 그친 을 넘어섰다....</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1일 전</t>
+          <t>10시간 전</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>머니투데이</t>
+          <t>IT조선</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>인텔 '백신 보너스' 30만원 지급…美 CNN 미접종 직원 3명 해고</t>
+          <t>이재용 경영복귀 효과…삼성이 빨라졌다</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>미국 반도체업체 인텔이 코로나19 백신 접종을 독려하기 위해 백신을 접종한 한국 법인 임직원에게도 보너스를 지급하기로 했다. 20일 관련업계에 따르면 인텔코리아는 코로나19 백신을 접종한 임직원들에게 250달러(약...</t>
+          <t>삼성전자는 평택캠퍼스에 제3공장(P3)을 조성하고 있는데, 이 부회장이 이곳을 점검한 후 TSMC와 인텔 등 경쟁사에 대한 대응 방안을 마련할 것이라는 전망이다. 삼성전자가 미국에 19조원 규모로 건설하기로 한 반도체...</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1일 전</t>
+          <t>10시간 전</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>뉴스웨이</t>
+          <t>노컷뉴스언론사 선정</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>삼성전자, 11분기 만에 인텔 제치고 세계 반도체 왕좌 재탈환</t>
+          <t>'반도체 1위' 삼성전자가 '반도체 1위'에 도전한다고?[인더독]</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>삼성전자가 지난 2018년 3분기 이후 11분기 만에 인텔을 제치고 매출액 기준 세계 반도체 업체 1위... 삼성전자는 올 1분기보다 매출액이 19% 증가하며 왕좌를 탈환한 반면 10분기 연속 1위 자리를 고수하던 은...</t>
+          <t>지난 1970년 인텔이 처음으로 생산을 시작한 D램은 컴퓨터에서 정보나 명령을 판독·기록할 수 있는 주... 이어 도시바에서 떨어져 나온 키옥시아(20%), 웨스턴 디지털(14%), SK하이닉스(12%), 마이크론(11%), (9...</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1일 전</t>
+          <t>10시간 전</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>아이뉴스24언론사 선정</t>
+          <t>연합뉴스</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>삼성전자 추격 '인텔의 꿈'…글로벌파운드리 대체할 인수 후보는</t>
+          <t>'반도체 왕좌' 두고 삼성·인텔의 전쟁…다음 전장은 '파운드리'</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>파운드리 업계 3위인 글로벌파운드리를 인수해 삼성전자를 추격하려던 미국 반도체 업체 인텔의 꿈이... 이 같은 소식이 알려지면서 글로벌파운드리 인수를 통해 파운드리 경쟁력 강화를 노리던 의 계획은 수정이...</t>
+          <t>삼성, 메모리 호황 덕에 1위 탈환…2018년 3분기 이후 11분기만 삼성·인텔, 파운드리에 공격 투자…파운드리 성과가 성패 좌우할 듯 세계 반도체 1등 기업이라는 왕좌를 두고 삼성전자와 간 경쟁이 치열하다....</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1일 전</t>
+          <t>16시간 전</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>아이뉴스24</t>
+          <t>뉴시스언론사 선정</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>[오늘의 전자 단신] 쿠첸, 유태오와 함께하는 '쿠첸 121 밥솥' 광고 온에어 外</t>
+          <t>삼성전자, 인텔 제치고 세계 반도체 시장 1위…"당분간 지킬 듯"</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>◆인텔, 데이터센터·성능 컴퓨팅-AI·클라이언트 컴퓨팅용 아키텍처 고도화 인텔이 '2021 아키텍처 데이'에서 한 세대 만에 가장 큰 아키텍처 변화를 발표했다. 이번 발표에서 두 개의 새로운 세대의 x86 코어와...</t>
+          <t>기사내용 요약삼성전자 2분기 23조 매출 거둬…인텔은 22조 2018년 3분기 이후 11분기만 삼성전자가 지난 2분기 매출 기준으로 인텔을 추월해 세계 반도체 시장 1위 자리에 올랐다. 2018년 3분기 이후 11분기만이다....</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1일 전</t>
+          <t>16시간 전</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1059,100 +1059,100 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>[금일 산업계 주요기사] 리니지W, 글로벌 사전예약 200만 돌파 "역대 최단기록...</t>
+          <t>[지난주 산업계 주요이슈] CJ ENM-LG유플러스, 저작권침해 '법적다툼'…"코로...</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>인텔은 차세대 그래픽처리장치(GPU) 생산을 파운드리(반도체 위탁생산) 세계 1위 업체 TSMC에 맡겼다. 후보에... ◆ 인텔, 차세대 GPU 공개… TSMC가 개발 담당 인텔은 19일(현지시각) '아키텍처 데이'를 온라인으로 개최하고...</t>
+          <t>◆ 인텔, 차세대 GPU 공개… TSMC가 개발 담당 인텔은 19일(현지시각) '아키텍처 데이'를 온라인으로 개최하고 차세대 제품 로드맵 공개. 인텔이 공개한 차세대 GPU는 'Xe HPG(알케미스트)'와 슈퍼컴퓨터용 '폰테베키오...</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1일 전</t>
+          <t>20시간 전</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>디지털데일리언론사 선정</t>
+          <t>PC사랑</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>반도체, 불확실성 불구 투자 열풍…세계 장비 톱5, 2분기 성장세 지속</t>
+          <t>삼성 갤럭시북 8월 22일(일) 단 하루 특가! NT750XDZ-A71A, 11번가 긴급공수 ...</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>- 삼성전자 인텔 TSMC SK하이닉스 등 투자 지속 시장에 대한 시각차와 별개로 반도체 투자는 여전했다.... 기존 삼성전자 TSMC에 이어 SK하이닉스 인텔 마이크론 난야 등도 EUV 도입을 공식화했다. 이미 EUV 장비 예약...</t>
+          <t>최신 인텔 코어 11세대 코어 i7 CPU 타이거레이크와 아이리스 XE 그래픽 카드 탑재로 성능 또한 더 업그레이드되었다. 문서 편집부터 온라인 수업, 디자인&amp;영상 제작 업무가 가능하며, 롤(리그 오브 레전드), 배그...</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1일 전</t>
+          <t>21시간 전</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>한국경제언론사 선정</t>
+          <t>쿠키뉴스</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>인텔 "될 때까지 M&amp;A"…반도체 패권 직진</t>
+          <t>글로벌 반도체株 희비…삼성전자 추락, 엔비디아 고공행진</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>미국 반도체 기업 인텔의 팻 겔싱어 최고경영자(CEO)가 세계 반도체 패권을 쥐기 위한 주요 전략으로 인수합병(M&amp;A)을 활용할 계획이라고 밝혔다. 인텔이 대형 M&amp;A에 성공하면 세계 반도체산업의 지형도가 바뀔 수도...</t>
+          <t>반면 비메모리 반도체는 인텔, 엔비디아, AMD가 점유율을 차지하고 있다. 이 가운데 엔비디아는 이른바 GPU로 불리는 그래픽처리장치를 활용한 반도체 공급을 주요 사업으로 하고 있다. 원래 엔비디아는 게임용 GPU를...</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A11면 1단</t>
+          <t>21시간 전</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>바이라인네트워크</t>
+          <t>한국경제언론사 선정</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>차세대 D램 'DDR5' 세대교체, 언제 일어날까</t>
+          <t>'아시아 시총 1위' 된 TSMC vs '7만전자'로 내려앉은 삼성 [박신영의 일렉트로...</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>올해 4분기에 DDR5를 탑재할 수 있는 인텔의 CPU 엘더레이크(Alder Lake)가 출시될 예정이기 때문이다. 하지만... 뒤이어 해당 반도체 전문가는 “DDR5가 본격적으로 확산되는 시점은 2022년 2분기에 양산되는 인텔...</t>
+          <t>이재용 삼성전자 부회장이 지난 1월 구속된 이후 인텔과 TSMC 등 경쟁 기업들이 공격적인 투자에 나설 때 적극적으로 대응하지 못했다. 특히 인텔과 TSMC가 삼성전자의 강점인 첨단 미세공정에 투자를 확대하면서...</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1일 전</t>
+          <t>23시간 전</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>한스경제</t>
+          <t>한국경제TV</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>삼성전자, 인텔 따돌리고 반도체 1위…메모리반도체 호황 덕</t>
+          <t>베트남, 코로나 장기화로 외국인직접투자 썰물 우려 [KVINA]</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>미국 인텔을 제치고 글로벌 반도체 기업 1위에 올라섰다. / 사진=삼성전자 [한스경제=최정화 기자] 삼성전자가 지난 2분기 미국 인텔을 제치고 글로벌 반도체 기업 1위에 올라섰다. 이로써 3년 연속 세계 반도체...</t>
+          <t>인텔베트남 호티투옌 홍보국장은 최근 경제 관련 회의에서 "베트남에 진출한 많은 다국적 기업들은... 인텔베트남에 따르면 7월 15일부터 8월 15일까지 총 1,400억 동(VND) 미화 약 6백만 달러 이상의 예상되지 않던 비용이...</t>
         </is>
       </c>
     </row>
@@ -1164,17 +1164,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>디지털데일리언론사 선정</t>
+          <t>로봇신문</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>[DD 퇴근길] 삼성전자, 인텔 제치고 반도체 왕좌 탈환</t>
+          <t>인텔, "'리얼센스' 스테레오 카메라는 계속 지원"</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>삼성전자가 지난 2분기 인텔을 제치고 전세계 반도체 회사 중 매출액 1위에 올랐습니다. 지난 18일(미국시각)... 2위는 인텔입니다. 지난 2분기 매출액은 196억3100만달러(약 22조5700억원) 영업이익은 55억4600만달러(약...</t>
+          <t>인텔이 컴퓨터 비전 '리얼센스' 사업을 중단키로 했다는 보도가 나온 이후 처음으로 인텔 앤더스 그루넷-젭슨 CTO가 입장을 밝혔다. 갑작스런 사업 중단 소식에 어리둥절하고 있는 로봇산업계 고객과...</t>
         </is>
       </c>
     </row>
@@ -1186,17 +1186,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>연합인포맥스</t>
+          <t>공감신문</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>[대만증시-마감] 亞증시 약세에 소폭 하락…0.20%↓</t>
+          <t>[공감 10주년 기획특집 딥터뷰] 염승환 "손절보다 보유 종목 재점검 시기"</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>TSMC는 장 초반 인텔과의 파트너십 관련 소식에 강세를 나타냈지만 연준의 테이퍼링 우려로 반락했다. 그 외에는 훙하이 정밀이 1.5% 올랐고, 미디어텍은 1.7% 내렸다. 본 기사는 인포맥스 금융정보 단말기에서 2시간 더...</t>
+          <t>내년에 'DDR5'라는 새 반도체가 나오고, '사파이어 래피즈'라는 인텔의 새 중앙처리장치(CPU)도 나온다. 미국 국방부의 클라우드 프로젝트도 내년에 예정돼 있다. 수요 모멘텀들이 대거 기다리고 있는 것이다. 그러니 너무...</t>
         </is>
       </c>
     </row>
@@ -1208,17 +1208,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ZDNet Korea언론사 선정</t>
+          <t>서울신문</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>[이슈진단+] 반도체 공정 평가 기준 '나노미터 무용론' 이유는?</t>
+          <t>[고든 정의 TECH+] 엔비디아에 도전장 내민 인텔…GPU 시장 왕좌 빼앗을까?</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>■ 3차원 트랜지스터 등장하면서 공정 진척 평가 더 복잡해 지금까지 TSMC, 인텔, 삼성전자 등 글로벌 반도체... (그림=인텔) 기존 트랜지스터는 게이트가 펼쳐져 있었지만 이를 3차원 구조로 접으면서 정확한 길이 측정이...</t>
+          <t>인텔이 인텔 아키텍처 데이 2021 행사를 통해 12세대 코어 프로세서인 엘더 레이크, 게이밍 GPU인 알케미스트, 그리고 고성능 연산용 GPU인 폰테 베키오의 아키텍처에 대한 상세한 정보를 공개했습니다. 흥미롭게도...</t>
         </is>
       </c>
     </row>
@@ -1230,17 +1230,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>브릿지경제</t>
+          <t>헤럴드경제언론사 선정</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>인텔 ‘차세대 GPU’ 쟁탈전, 승자는 삼성전자 아닌 TSMC</t>
+          <t>이재용의 삼성 vs. 갤싱어의 인텔, 막오르는 ‘반도체 M&amp;A’ 대전 [TNA]</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>인텔 ‘차세대 GPU’ 쟁탈전, 승자는 삼성전자 아닌 TSMC 파운드리 업계 1위인 TSMC와 2위인 삼성전자가 맞붙은 인텔의 그래픽처리장치(GPU) 위탁생산 쟁탈전은 TSMC의 승리로 끝이 났다. 시장에서는 삼성전자가 의...</t>
+          <t>공룡’ 인텔과 치열한 두뇌 싸움이 벌어질 것으로 전망된다. 20일 업계와 외신에 따르면 인텔의 팻 겔싱어 최고경영자(CEO)는 최근 월스트리저널(WSJ)과의 인터뷰에서 “의 부흥을 위해 M&amp;A를 활용할 계획”이라고...</t>
         </is>
       </c>
     </row>
@@ -1252,17 +1252,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>아시아투데이</t>
+          <t>테크M</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>인텔 CEO "반도체 기업간 합병 지속될 것…인텔 통합 주체 되겠다"</t>
+          <t>[글로벌] 인텔, PC용 그래픽카드 시장 진출...엔비디아-AMD와의 격전 예고</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>글로벌파운드리 인수 무산 후 또 M&amp;A 언급 인텔은 자발적 인수자 반도체 산업에 대형 인수합병이 지속될 것이란 전망이 나왔다. 반도체 산업의 인수합병을 주도할 업체로는 이 손꼽힌다. 은 팻 겔싱어...</t>
+          <t>인텔 아크 /사진=디미닛 제공 인텔이 PC용 그래픽카드 시장에 진출합니다. 지난 17일 인텔은 고성능 그래픽 제품 브랜드 '인텔 아크'를 소개하며 고성능 칩셋 '알케미스트'를 내년 1분기에 출시하겠다고 밝혔습니다....</t>
         </is>
       </c>
     </row>
@@ -1274,17 +1274,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>인벤</t>
+          <t>주간동아언론사 선정</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>인텔, 아키텍처 데이 통해 차세대 아키텍처 발표</t>
+          <t>‘염블리’ 염승환 “삼성전자, 또 한 번 ‘줍줍’ 기회 왔다”</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>매년 인텔 아키텍처 데이(Intel Architecture Day)에서는 출시를 앞둔 제품을 위해 그동안 작업해온 아키텍처 혁신을 공개하고 있다. 올해로 3회 째를 맞이한 이번 행사는 역대 매우 흥미진진한 행사였다. 은 2021...</t>
+          <t>TSMC와 중국의 관계가 부담스러운 미국 입장에서 삼성전자나 인텔이 잘하면 좋을 수밖에 없다. 인텔보다 삼성전자가 좋은데, 그동안 삼성전자에서 불량품이 너무 많이 나왔다. 10개를 만들면 4~5개가 불량이라 맡기질...</t>
         </is>
       </c>
     </row>
@@ -1296,17 +1296,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>파이낸셜뉴스언론사 선정</t>
+          <t>미디어펜</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>인텔, 글로벌파운드리스 협상 결렬에도 "M&amp;A 계속 추진"</t>
+          <t>'비싸도 특별하니까'…식지않는 한정판 인기</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>지난 3월 반도체 위탁생산(파운드리) 산업에 도전장을 내민 미국 인텔이 최근 협상 난항에도 불구하고 지속적으로 인수합병(M&amp;A)을 통해 몸집을 불리겠다고 밝혔다. 의 팻 겔싱어 최고경영자(CEO)는 19일(현지시간)...</t>
+          <t>또 기존 제품 대비 데이터 처리 속도가 약 10% 빠른 인텔 11세대 프로세서 타이거레이크R를 적용했고, 인텔의 내장 그래픽 프로세서 아이리스 엑스이도 장착해, 고화질 영상 작업 및 게임 구동 시 빠른 속도로 쾌적한...</t>
         </is>
       </c>
     </row>
@@ -1318,17 +1318,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>뉴스웍스</t>
+          <t>헤럴드경제</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>겔싱어 CEO "인텔, 반도체 통합 주체 될 것"…M&amp;A에 강한 의욕</t>
+          <t>반도체戰 승자 예언? GAA에 답 있다[TNA]</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>팻 겔싱어 인텔 최고경영자(CEO)가 반도체 인수·합병(M&amp;A)에 대한 강한 의지를 피력했다. 인텔의 도약을 위해 M&amp;A를 적극 활용한다는 것이다. 겔 싱어는 19일자(현지시간) 월스트리트저널(WSJ)과의 인터뷰에서 "(반도체)...</t>
+          <t>‘막차’는 인텔 정도로, 2023년를 목표로 두고 있다. EUV를 뒤이어 새로운, 더 거대한 진입장벽으로... 현재까진 2강 구도이지만, 인텔도 GAA에 뛰어들겠다고 선언한 상태다. 은 내년부터 EUV를 도입, 4nm에...</t>
         </is>
       </c>
     </row>
@@ -1340,17 +1340,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>한국경제</t>
+          <t>이데일리언론사 선정</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>인텔 사령탑 "M&amp;A로 패권 잡겠다"…삼성 추격 승부수</t>
+          <t>[뉴욕증시]테이퍼링 우려 완화…3대지수 일제히 상승</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>미국 반도체기업 인텔의 팻 겔싱어 최고경영자(CEO)가 세계 반도체 패권을 쥐기 위한 주요 전략으로 인수합병(M&amp;A)을 들었다. 인텔이 대형 M&amp;A에 성공할 경우 세계 반도체 산업의 지형도가 바뀔 수도 있다는 분석이다....</t>
+          <t>반도체주는 엔비디아(5.14%), AMD(0.92%) 등이 상승한 반면, 마이크론 테크놀러지(-0.07%), 인텔(-0.82%) 등은 하락해 엇갈린 흐름을 보였다. 다우지수에선 시스코(1.66%), 세일즈포스(1.21%), 홈디포(1.96%), 나이키(1.32...</t>
         </is>
       </c>
     </row>
@@ -1362,17 +1362,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>이코노미스트</t>
+          <t>아주경제</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>인텔, 글로벌파운드리 인수 물거품에도 'M&amp;A는 계속'</t>
+          <t>[위클리人] 돌아온 이재용 삼성전자 부회장...우선 순위는 ‘내부 결속’</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>미국 반도체 업체 인텔이 다시 한 번 인수합병(M&amp;A) 의지를 밝혔다. 팻 갤싱어 인텔 CEO는 19일 월스트리트저널(WSJ)과의 인터뷰에서 “반도체 업계의 통합 추세는 계속 될 것이며 이 산업의 통합자가 되기를...</t>
+          <t>실제 인텔은 올해 3월 파운드리 사업에 다시금 도전하겠다는 내용의 ‘IDM 2.0’을 선언했고, 최근에는 퀄컴과 아마존을 고객사로 받아들였다고 발표했다. 글로벌 파운드리 1위인 TSMC도 올해 4월 1분기 실적 발표 당시...</t>
         </is>
       </c>
     </row>
@@ -1384,17 +1384,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>파이낸셜뉴스</t>
+          <t>초이스경제</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>삼성전자, 인텔 제치고 반도체 왕좌 재탈환</t>
+          <t>"테이퍼링 우려 완화"...미국증시 3대 지수 '상승'</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2018년 3·4분기 이후 11분기만에 라이벌 인텔을 재추월했다. 20일 시장조사업체 IC인사이츠에 따르면... 기록하며 인텔에 대한 우위를 이어갈 것"이라고 전망했다. 대만의 파운드리(반도체 위탁생산) 업체인...</t>
+          <t>반도체주 가운데 엔비디아(+5.14%), AMD(+0.92%) 등은 상승했고 마이크론 테크놀러지(-0.07%), 인텔(-0.82%) 등은 하락했다. 필라델피아 반도체 지수는 0.64% 올랐다. 또 다우지수에서는 홈디포(+1.96%), 나이키(+1.32...</t>
         </is>
       </c>
     </row>
@@ -1406,17 +1406,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>디지털데일리언론사 선정</t>
+          <t>머니투데이언론사 선정</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>애플도 MS도 'x86' 떠난다…인텔의 해법은? [IT클로즈업]</t>
+          <t>왕좌 앉은 삼성, 되찾으려는 인텔...'푸른 피' 전쟁 시작됐다</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>- AP 이어 CPU 세력 키우는 ARM 아키텍처 글로벌 정보기술(IT) 업체의 ‘탈(脫)인텔’ 기조가 계속되고 있다. 인텔의 아키텍처 ‘x86’ 대신 ARM을 통해 자체 칩을 개발하려는 흐름이다. 은 아키텍처 성능 향상이라는...</t>
+          <t>삼성전자와 인텔의 반도체 1위 전쟁] '1960년대 후반 '푸른 피'로 태어난 두 혁신 기업 같은 시기에 태어났지만 다른 길을 걸었던 반도체 강자 인텔과 삼성전자가 1위 자리를 놓고 경쟁의 출발선에 섰다. 1968년 7월 미국...</t>
         </is>
       </c>
     </row>
@@ -1428,17 +1428,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>PC사랑</t>
+          <t>IT조선</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>유니씨앤씨, 삼성 갤럭시북 프로360 NT930QDY-A51A 11번가 긴급공수 8월 20일...</t>
+          <t>[뉴스브리핑] 8월21일…인텔 반도체 M&amp;A추진·페북 반독점 소송·美가상자산 ...</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 삼성전자 공식 파트너사 유니씨앤씨는 Super AMOLED 디스플레이와 최신 인텔 11세대 타이거레이크... 최신 인텔 11세대 코어 i5 프로세서 탑재 ▷ 16GB 메모리와 NVMe 256GB SSD 탑재 ▷ 프로 키보드와 대형 터치패드...</t>
+          <t>◇ SK, SK머티리얼즈 품고 첨단소재 파이낸셜스토리 쓴다 ◇ 에픽게임즈, 언리얼 엔진 4.27 출시 ◇ 인텔 CEO, 반도체 M&amp;A 추진 재차 강조 ◇ 美 FTC, 페이스북 반독점 소송 다시 제기 ◇ 美 가상자산 규제 확대 움직임....</t>
         </is>
       </c>
     </row>
@@ -1450,17 +1450,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>이데일리언론사 선정</t>
+          <t>중앙SUNDAY</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>인텔은 왜 차세대 GPU 생산을 삼성 아닌 TSMC에 맡겼나</t>
+          <t>“반도체 미세공정 2~3나노가 한계, 이젠 3D 소자 연구”</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>인텔이 차세대 슈퍼컴퓨터용 그래픽처리장치(GPU) 생산을 대만 TSMC에 맡기기로 했다. 그동안 삼성전자 파운드리(반도체 수탁생산)가 인텔의 GPU를 수주할 수 있다는 가능성이 나왔지만, 이 같은 관측이 정확히 빗나간...</t>
+          <t>2022년 본격 양산에 돌입.’(8월 4일) ‘인텔, 2024년에 2나노급 ‘20A’ 반도체 양산해 현재 앞서 있는... 버클리대 첸밍후 교수의 연구를 바탕으로 2011년 인텔이 22㎚에서 핀펫(FinFET·Fin field-effect transistor) 구조를...</t>
         </is>
       </c>
     </row>
@@ -1472,17 +1472,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>글로벌이코노믹</t>
+          <t>더구루</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>테슬라, '인공지능(AI) 데이'에 슈퍼컴퓨터 '도조'와 반도체 'D1' 발표</t>
+          <t>"자율주행 센서 스타트업 에이아이, 장기 투자 유망주"</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>AI 모델 학습에 활용할 수 있는 반도체를 만드는 업체로는 반도체 제조사 인텔, 그래픽카드 제조사 엔비디아, 스타트업 그래프코어(Graphcore) 등이 있다. 도조는 테슬라 차량 내부의 카메라가 수집한 비디오 자료를...</t>
+          <t>제너럴모터스(GM)과 인텔, 스바루, 헬라 등이 사모투자에 참여했다. &lt;본보 2021년 2월 18일자 참고 : 'LG·SK 투자' 美 차량용 센서 스타트업, 나스닥 입성 임박&gt; 에이아이는 미국 항공우주국(NASA) 출신 엔지니어가...</t>
         </is>
       </c>
     </row>
@@ -1494,17 +1494,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>뉴스투데이</t>
+          <t>더구루</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>[주말쇼핑정보] “아듀 여름”… 홈플러스‧G마켓, 시즌오프 세일 한창</t>
+          <t>인텔 파트너사, 리막 하이퍼카 '네베라' 지원사격</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>이번 행사에 참여한 브랜드는 △삼성전자 △애플 △HP △인텔 △DELL △레노버 △마이크로소프트 △필립스 △LG노트북 △피스넷 △ASUS △코스텔 △폴라로이드 △다이슨 △쿠진아트 △네스프레소 △동서가구 △한샘...</t>
+          <t>프로젝트팀 별도 구성, 네베라 안정성 위한 기술 지원  미국 반도체 기업 인텔의 파트너사 중 하나인 '브라이트스키'(Brightskies)가 크로아티아 고성능 하이퍼 전기차 업체 '리막 오토모빌리'(Rimac Automobili)를 지원하고...</t>
         </is>
       </c>
     </row>
@@ -1516,17 +1516,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>뉴시스</t>
+          <t>동아일보</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>인텔 CEO "반도체 통합 주체될 것…M&amp;A 지속"</t>
+          <t>[리뷰] 시원한 고성능, 씨게이트 파이어쿠다 530 M.2 NVMe 히트싱크</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>인텔의 펫 겔싱어 최고경영자(CEO)가 인텔 부흥을 위해 인수합병(M&amp;A)을 활용할 계획이라고 말했다. 19일(현지시간) 월스트리트저널(WSJ)에 따르면 겔싱어 CEO는 인터뷰에서 "반도체업계의 통합 추세는 지속될 것"이라며...</t>
+          <t>특히 AMD의 3세대 라이젠 시리즈 및 인텔의 11세대 코어 시리즈를 비롯한 프로세서 제품군, 그리고 콘솔게임기인 플레이스테이션5(PS5)에서 PCIe 4.0 SSD를 본격 지원하면서 이에 부합하는 제품이 다수 출시되고...</t>
         </is>
       </c>
     </row>
@@ -1538,17 +1538,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>이투데이</t>
+          <t>정보통신신문</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>겔싱어 인텔 CEO, M&amp;A에 강한 의욕…“반도체업계 통합에 주체될 것”</t>
+          <t>인텔 데이터센터, 고성능 컴퓨팅-AI·클라이언트 컴퓨팅용 아키텍처 고도화</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>이투데이=김나은 기자 | “인텔, 자발적인 인수자” 강조 글로버리파운드리 IPO 신청으로 M&amp;A 무산 “반도체 생산 자본 집약적...기업들 힘 합쳐야 할 가능성 커져” 팻 겔싱어 최고경영자(CEO). 로이터연합뉴스 팻...</t>
+          <t>인텔은 '2021 아키텍처 데이'에서 한 세대만에 가장 큰 아키텍처 변화를 발표했다. 이번 발표에서 두 개의 새로운 세대의 x86 코어와 인텔리전트 인텔 스레드 디렉터 워크로드 스케줄러를 탑재한 인텔의 첫...</t>
         </is>
       </c>
     </row>
@@ -1560,17 +1560,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>데일리한국</t>
+          <t>연합인포맥스</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>삼성전자, 인텔 제치고 격차 벌린다…SK하이닉스도 고성장</t>
+          <t>[亞증시-종합] 성장 둔화 우려·中 규제에 일제히 하락</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>삼성 반도체, 11분기만에 인텔 누르고 매출 1위 IC인사이츠 "3분기 삼성 반도체 매출 10% 성장" SK하이닉스 매출 21% 성장, 메모리반도체 효과 [데일리한국 김언한 기자] 삼성전자가 올해 2분기 을 제치고 반도체...</t>
+          <t>TSMC는 장 초반 인텔과의 파트너십 관련 소식에 강세를 나타냈지만 연준의 테이퍼링 우려로 반락했다. 그 외에는 훙하이 정밀이 1.5% 올랐고, 미디어텍은 1.7% 내렸다. 본 기사는 인포맥스 금융정보 단말기에서 2시간...</t>
         </is>
       </c>
     </row>
@@ -1582,17 +1582,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>글로벌이코노믹</t>
+          <t>머니투데이</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>갤싱어 인텔 CEO “반도체 파운드리 기업 인수에 최선"</t>
+          <t>인텔 '백신 보너스' 30만원 지급…美 CNN 미접종 직원 3명 해고</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>반도체 업계에서 의욕적인 구매자로 불리는 펫 겔싱어(Pat Gelsinger) 인텔 최고경영자(CEO)가... 지난 2월에 인털 CEO로 취임한 갤싱어는 WSJ과 인터뷰에서 “업계에 통합 흐름이 지속될 것”이라며 “회사()의...</t>
+          <t>미국 반도체업체 인텔이 코로나19 백신 접종을 독려하기 위해 백신을 접종한 한국 법인 임직원에게도 보너스를 지급하기로 했다. 20일 관련업계에 따르면 인텔코리아는 코로나19 백신을 접종한 임직원들에게 250달러(약...</t>
         </is>
       </c>
     </row>
@@ -1604,17 +1604,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>이투데이</t>
+          <t>뉴스웨이</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>글로벌 메이저 반도체 기업, 폭증하는 수요에 재고자산 사상 최대</t>
+          <t>삼성전자, 11분기 만에 인텔 제치고 세계 반도체 왕좌 재탈환</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>이투데이=배준호 기자 | 삼성·인텔 등 9개사 재고자산, 6월 말 기준 76조원 달해 생산 대폭 늘리고자 원재료... 조사 대상은 우리나라의 삼성전자와 SK하이닉스, 대만 TSMC, 미국 과 마이크론테크놀로지, 웨스턴디지털...</t>
+          <t>삼성전자가 지난 2018년 3분기 이후 11분기 만에 인텔을 제치고 매출액 기준 세계 반도체 업체 1위... 삼성전자는 올 1분기보다 매출액이 19% 증가하며 왕좌를 탈환한 반면 10분기 연속 1위 자리를 고수하던 은...</t>
         </is>
       </c>
     </row>
@@ -1626,17 +1626,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>이데일리언론사 선정</t>
+          <t>아이뉴스24언론사 선정</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>삼성 '美 제2반도체 공장' 종착지는 뉴욕?…JY 결단에 쏠리는 눈</t>
+          <t>삼성전자 추격 '인텔의 꿈'…글로벌파운드리 대체할 인수 후보는</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>오는 2024년 삼성전자의 경쟁자인 대만 TSMC·미국 인텔의 미국 내 파운드리 공장이 준공될 것으로 보이는 가운데 이 부회장의 경영 복귀와 맞물려 삼성전자의 투자시계가 빨라질 것이란 기대가 커지면서다. 인센티브...</t>
+          <t>파운드리 업계 3위인 글로벌파운드리를 인수해 삼성전자를 추격하려던 미국 반도체 업체 인텔의 꿈이... 이 같은 소식이 알려지면서 글로벌파운드리 인수를 통해 파운드리 경쟁력 강화를 노리던 의 계획은 수정이...</t>
         </is>
       </c>
     </row>
@@ -1648,17 +1648,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>씨넷코리아</t>
+          <t>아이뉴스24</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>[유기자의 차이나샵#] 리얼미, 자사 첫 노트북 '리얼미북' 발표K 화면에 1.38...</t>
+          <t>[오늘의 전자 단신] 쿠첸, 유태오와 함께하는 '쿠첸 121 밥솥' 광고 온에어 外</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>100% sRGB, 1500:1의 명암비, 400nits 피크 휘도를 지원해 학습, 사무, 엔터테인먼트 등 다양한 상황에 맞춰 사용할 수 있다.인텔 11세대 코어 프로세서 i5-1135G7이 탑재된 이 제품은 얇기가 14.9cm, 8GB 램 버전...</t>
+          <t>◆인텔, 데이터센터·성능 컴퓨팅-AI·클라이언트 컴퓨팅용 아키텍처 고도화 인텔이 '2021 아키텍처 데이'에서 한 세대 만에 가장 큰 아키텍처 변화를 발표했다. 이번 발표에서 두 개의 새로운 세대의 x86 코어와...</t>
         </is>
       </c>
     </row>
@@ -1670,17 +1670,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>테크M</t>
+          <t>청년일보</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>글로벌 반도체 1위 = 삼성전자</t>
+          <t>[금일 산업계 주요기사] 리니지W, 글로벌 사전예약 200만 돌파 "역대 최단기록...</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>이재용 삼성전자 부회장/캐리커쳐=디미닛 삼성전자가 올해 2분기 글로벌 반도체 시장에서 인텔을... 반면, 10분기 연속 세계 반도체 매출 1위 자리를 지켜오던 미국의 (Intel)은 전분기 대비 3% 성장에 그친...</t>
+          <t>인텔은 차세대 그래픽처리장치(GPU) 생산을 파운드리(반도체 위탁생산) 세계 1위 업체 TSMC에 맡겼다. 후보에... ◆ 인텔, 차세대 GPU 공개… TSMC가 개발 담당 인텔은 19일(현지시각) '아키텍처 데이'를 온라인으로 개최하고...</t>
         </is>
       </c>
     </row>
@@ -1692,17 +1692,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>공공뉴스</t>
+          <t>디지털데일리언론사 선정</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>삼성전자, 2Q 글로벌 반도체 시장 1위 탈환..2018년 3Q 이후 11분기만</t>
+          <t>반도체, 불확실성 불구 투자 열풍…세계 장비 톱5, 2분기 성장세 지속</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>삼성전자가 지난 2018년 3분기 이후 11분기 만에 글로벌 반도체 시장에서 인텔을 제치고 1위에 이름을... 반대로 10분기 연속 1위 자리를 지킨 인텔은 매출 193억 달러로 직전 분기보다 3% 성장에 그치며 2위로...</t>
+          <t>- 삼성전자 인텔 TSMC SK하이닉스 등 투자 지속 시장에 대한 시각차와 별개로 반도체 투자는 여전했다.... 기존 삼성전자 TSMC에 이어 SK하이닉스 인텔 마이크론 난야 등도 EUV 도입을 공식화했다. 이미 EUV 장비 예약...</t>
         </is>
       </c>
     </row>
@@ -1714,17 +1714,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>매일경제TV</t>
+          <t>한국경제언론사 선정</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>[오늘의 올림'Pick'] SKC·테스나·엔씨소프트·아톤</t>
+          <t>인텔 "될 때까지 M&amp;A"…반도체 패권 직진</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>중 - 인텔 글로벌파운드리 인수 쉽지 않을 듯 - 글로벌 파운드리 미국 증시 독자 IPO 추진 - 삼성전자의 파운드리 사업 강화 움직임 최대 수혜주 ▶ 엔씨소프트(036570) - 일정 상 기대치 상승…바닥권 탈출 의미 부여...</t>
+          <t>미국 반도체 기업 인텔의 팻 겔싱어 최고경영자(CEO)가 세계 반도체 패권을 쥐기 위한 주요 전략으로 인수합병(M&amp;A)을 활용할 계획이라고 밝혔다. 인텔이 대형 M&amp;A에 성공하면 세계 반도체산업의 지형도가 바뀔 수도...</t>
         </is>
       </c>
     </row>
@@ -1736,17 +1736,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>인공지능신문</t>
+          <t>바이라인네트워크</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>루닛 AI 인사이트 CXR에 인텔 '오픈비노' 적용… CPU 기반에서 신속한 의료 인...</t>
+          <t>차세대 D램 'DDR5' 세대교체, 언제 일어날까</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>인텔(한국대표 권명숙)과 의료 인공지능(AI) 기업 루닛 (대표 서범석)이 기술 협업을 통해 자사 기술의 서비스 범위와 고객층을 확대한다. 루닛은 자사의 폐 질환 진단 보조 AI 소프트웨어 '루닛 인사이트 CXR'이 의...</t>
+          <t>올해 4분기에 DDR5를 탑재할 수 있는 인텔의 CPU 엘더레이크(Alder Lake)가 출시될 예정이기 때문이다. 하지만... 뒤이어 해당 반도체 전문가는 “DDR5가 본격적으로 확산되는 시점은 2022년 2분기에 양산되는 인텔...</t>
         </is>
       </c>
     </row>
@@ -1758,17 +1758,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>아시아타임즈</t>
+          <t>한스경제</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>TSMC 손잡은 인텔, 그래픽카드 재도전…'양강구도' 깰까</t>
+          <t>삼성전자, 인텔 따돌리고 반도체 1위…메모리반도체 호황 덕</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>기자] 인텔이 대만 파운드리 업체 TSMC와 손잡고 1998년 이후 20여년 만에 외장 '그래픽카드' 시장에 재진입한다. 엔비디아와 AMD로 양분된 시장에 도전장을 낸 것이다. 은 19일(현지시간) 온라인에서 '2021 아키텍처...</t>
+          <t>미국 인텔을 제치고 글로벌 반도체 기업 1위에 올라섰다. / 사진=삼성전자 [한스경제=최정화 기자] 삼성전자가 지난 2분기 미국 인텔을 제치고 글로벌 반도체 기업 1위에 올라섰다. 이로써 3년 연속 세계 반도체...</t>
         </is>
       </c>
     </row>
@@ -1780,17 +1780,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>연합뉴스언론사 선정</t>
+          <t>디지털데일리언론사 선정</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>첨단 퀀텀컴퓨터 기술의 산실…구글 '퀀텀 AI 캠퍼스' 둘러보니</t>
+          <t>[DD 퇴근길] 삼성전자, 인텔 제치고 반도체 왕좌 탈환</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>구글 외에도 IBM과 마이크로소프트, 인텔 등 세계적 정보기술(IT) 기업들이 이를 연구하는 중이다. 구글은 양자 컴퓨터 개발에서 선도적 위치에 선 것으로 평가되고 있다. 2019년에는 슈퍼컴퓨터로 1만년 걸리는 연산을...</t>
+          <t>삼성전자가 지난 2분기 인텔을 제치고 전세계 반도체 회사 중 매출액 1위에 올랐습니다. 지난 18일(미국시각)... 2위는 인텔입니다. 지난 2분기 매출액은 196억3100만달러(약 22조5700억원) 영업이익은 55억4600만달러(약...</t>
         </is>
       </c>
     </row>
@@ -1802,552 +1802,552 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>케이벤치</t>
+          <t>연합인포맥스</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2년전 CPU가 여전히 조립 PC로 팔린다?, 과연 프리미엄 게이밍 PC일까..</t>
+          <t>[대만증시-마감] 亞증시 약세에 소폭 하락…0.20%↓</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>현시점 인텔의 11세대 CPU와 AMD의 경우 라이젠 5000 시리즈로 시대의 흐름이 바뀐 상황속에, 과연 구형... 벤치마크 결과 대부분의 모든 게임에 있어 인텔 구형 i5 9400F는 자사의 최신 CPU인 i5 11400F는 물론 경쟁사...</t>
+          <t>TSMC는 장 초반 인텔과의 파트너십 관련 소식에 강세를 나타냈지만 연준의 테이퍼링 우려로 반락했다. 그 외에는 훙하이 정밀이 1.5% 올랐고, 미디어텍은 1.7% 내렸다. 본 기사는 인포맥스 금융정보 단말기에서 2시간 더...</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>1일 전</t>
+          <t>2일 전</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>IT조선</t>
+          <t>ZDNet Korea언론사 선정</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>인텔 CEO, 반도체 M&amp;A 추진 재차 강조</t>
+          <t>[이슈진단+] 반도체 공정 평가 기준 '나노미터 무용론' 이유는?</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>팻 겔싱어 인텔 최고경영자(CEO)가 반도체 기업 인수합병(M&amp;A) 추진을 재차 강조했다. 글로벌 반도체 합종연횡이 지속하는 가운데 인텔이 통합의 주체가 되겠다는 의지의 표현이다. 19일(이하 현지시각) 겔싱어 CEO는...</t>
+          <t>■ 3차원 트랜지스터 등장하면서 공정 진척 평가 더 복잡해 지금까지 TSMC, 인텔, 삼성전자 등 글로벌 반도체... (그림=인텔) 기존 트랜지스터는 게이트가 펼쳐져 있었지만 이를 3차원 구조로 접으면서 정확한 길이 측정이...</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>1일 전</t>
+          <t>2일 전</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>서울경제언론사 선정</t>
+          <t>브릿지경제</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>삼성전자, 3분기도 인텔 제치고 반도체 1위 유력</t>
+          <t>인텔 ‘차세대 GPU’ 쟁탈전, 승자는 삼성전자 아닌 TSMC</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>삼성전자가 지난 2분기 미국 인텔을 제치고 매출 1위 반도체 기업에 올랐다. 지난 2018년 3분기 이후 약... 3분기 역시 삼성전자 매출은 인텔을 압도할 것으로 전망된다. 20일 시장조사업체 IC인사이츠에 따르면...</t>
+          <t>인텔 ‘차세대 GPU’ 쟁탈전, 승자는 삼성전자 아닌 TSMC 파운드리 업계 1위인 TSMC와 2위인 삼성전자가 맞붙은 인텔의 그래픽처리장치(GPU) 위탁생산 쟁탈전은 TSMC의 승리로 끝이 났다. 시장에서는 삼성전자가 의...</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>1일 전</t>
+          <t>2일 전</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>KOTRA해외시장뉴스</t>
+          <t>아시아투데이</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>미국 IT기업의 자동차 산업 디지털 전환 가속</t>
+          <t>인텔 CEO "반도체 기업간 합병 지속될 것…인텔 통합 주체 되겠다"</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>- 구글, 아마존, 인텔 등 빅테크의 자율차 개발 가속 - - IT기업, 완성차 업계와 기술협력도 병행... 죽스의 자율주행 기술이 적용된 자율주행 택시 자료: 죽스 반도체 기업 (Intel)은 자율주행기술...</t>
+          <t>글로벌파운드리 인수 무산 후 또 M&amp;A 언급 인텔은 자발적 인수자 반도체 산업에 대형 인수합병이 지속될 것이란 전망이 나왔다. 반도체 산업의 인수합병을 주도할 업체로는 이 손꼽힌다. 은 팻 겔싱어...</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1일 전</t>
+          <t>2일 전</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>데일리안</t>
+          <t>인벤</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>팻 겔싱어 인텔 CEO “반도체 통합 주체 될 것…M&amp;A 적극 활용”</t>
+          <t>인텔, 아키텍처 데이 통해 차세대 아키텍처 발표</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>팻 겔싱어 인텔 최고경영자(CEO)가 반도체 기업 인수합병(M&amp;A) 의지를 다시 한 번 피력했다. 인텔의 부흥을 위해 M&amp;A를 적극 활용한다는 계획이다. 19일(현지시간) 월스트리트저널(WSJ)에 따르면 겔싱어 CEO는 인터뷰에서...</t>
+          <t>매년 인텔 아키텍처 데이(Intel Architecture Day)에서는 출시를 앞둔 제품을 위해 그동안 작업해온 아키텍처 혁신을 공개하고 있다. 올해로 3회 째를 맞이한 이번 행사는 역대 매우 흥미진진한 행사였다. 은 2021...</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>1일 전</t>
+          <t>2일 전</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>한국금융신문</t>
+          <t>파이낸셜뉴스언론사 선정</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>삼성전자, 메모리 강세에 11분기만에 글로벌 매출 ‘1위’</t>
+          <t>인텔, 글로벌파운드리스 협상 결렬에도 "M&amp;A 계속 추진"</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>반면, 10분기 연속 1위를 차지하던 인텔은 전 분기 대비 3% 증가한 193억달러를 기록하며, 2위로... 이후 메모리 가격이 점차 하락하면서 10분기 연속 인텔에 1위 자리를 내줬다. 파운드리 1위 업체인 대만의 TSMC의...</t>
+          <t>지난 3월 반도체 위탁생산(파운드리) 산업에 도전장을 내민 미국 인텔이 최근 협상 난항에도 불구하고 지속적으로 인수합병(M&amp;A)을 통해 몸집을 불리겠다고 밝혔다. 의 팻 겔싱어 최고경영자(CEO)는 19일(현지시간)...</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>1일 전</t>
+          <t>2일 전</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>데일리안</t>
+          <t>뉴스웍스</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>삼성전자, 인텔 제치고 세계 반도체 1위 탈환</t>
+          <t>겔싱어 CEO "인텔, 반도체 통합 주체 될 것"…M&amp;A에 강한 의욕</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>삼성전자가 올해 2분기 전 세계 반도체 시장에서 인텔을 제치고 1위를 탈환한 것으로 나타났다. 지난... 지속되며 인텔에 1위 자리를 내줘야 했다. 반면 지난 10분기 연속 1위 자리를 지켜왔던 미국 은...</t>
+          <t>팻 겔싱어 인텔 최고경영자(CEO)가 반도체 인수·합병(M&amp;A)에 대한 강한 의지를 피력했다. 인텔의 도약을 위해 M&amp;A를 적극 활용한다는 것이다. 겔 싱어는 19일자(현지시간) 월스트리트저널(WSJ)과의 인터뷰에서 "(반도체)...</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>1일 전</t>
+          <t>2일 전</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>헤럴드경제</t>
+          <t>한국경제</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>“ICT기업, 탄소중립 부담 갈수록 커져...‘에너지 자유거래’ 필요” [유웅환...</t>
+          <t>인텔 사령탑 "M&amp;A로 패권 잡겠다"…삼성 추격 승부수</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>인텔, 삼성전자, 현대자동차 등에서 반도체 전문가로 일하다 2017년, 문재인 선거 캠프에 영입돼 ‘사람중심 4차산업혁명’ 정책 설계를 담당했다. 당시 공정, 창의, 사람중심 문화를 역설했던 그와 지난 5일 서울 중구...</t>
+          <t>미국 반도체기업 인텔의 팻 겔싱어 최고경영자(CEO)가 세계 반도체 패권을 쥐기 위한 주요 전략으로 인수합병(M&amp;A)을 들었다. 인텔이 대형 M&amp;A에 성공할 경우 세계 반도체 산업의 지형도가 바뀔 수도 있다는 분석이다....</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>1일 전</t>
+          <t>2일 전</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>헤럴드경제</t>
+          <t>이코노미스트</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>‘넷제로’ 개념없던 20년전 데이터전송 탄소감축 연구</t>
+          <t>인텔, 글로벌파운드리 인수 물거품에도 'M&amp;A는 계속'</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>한국 토종 박사였던 그는 독창적인 논문 주제 덕에 IBM, 인텔, 필립스반도체 등 유수의 글로벌 회사로부터 러브콜을 받았다. 이후 인텔로 자리를 옮겨 10년간 일하면서 현재 인텔 코어 시리즈의 뼈대가 된 ‘네할렘’...</t>
+          <t>미국 반도체 업체 인텔이 다시 한 번 인수합병(M&amp;A) 의지를 밝혔다. 팻 갤싱어 인텔 CEO는 19일 월스트리트저널(WSJ)과의 인터뷰에서 “반도체 업계의 통합 추세는 계속 될 것이며 이 산업의 통합자가 되기를...</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>24면 1단</t>
+          <t>2일 전</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>아주경제</t>
+          <t>파이낸셜뉴스</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>"말레이發 반도체 악재" 中 자동차 생산량 반토막 예상</t>
+          <t>삼성전자, 인텔 제치고 반도체 왕좌 재탈환</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>인피니온, ST마이크로일렉트로닉스, 인텔, 엔엑스피NXP), 텍사스인스트루먼트, 온세미 등 50여개 글로벌 반도체 기업이 이곳에 공장을 운영 중이다.  하지만 코로나19 장기 봉쇄령으로 언제든 생산 가동이 중단될 수...</t>
+          <t>2018년 3·4분기 이후 11분기만에 라이벌 인텔을 재추월했다. 20일 시장조사업체 IC인사이츠에 따르면... 기록하며 인텔에 대한 우위를 이어갈 것"이라고 전망했다. 대만의 파운드리(반도체 위탁생산) 업체인...</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1일 전</t>
+          <t>2일 전</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>SBS Biz</t>
+          <t>디지털데일리언론사 선정</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>인텔 CEO, 글로벌파운드리 인수 무산에도 "M&amp;A 작업 지속"</t>
+          <t>애플도 MS도 'x86' 떠난다…인텔의 해법은? [IT클로즈업]</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>미국 반도체 기업 인텔의 팻 겔싱어 최고경영자(CEO)가 인텔의 부흥을 위해 인수합병(M&amp;A)을 활용할 계획이라고 밝혔습니다. 겔싱어 CEO는 19일(현지시간) 월스트리트저널(WSJ)과의 인터뷰에서 "반도체 업계의 통합...</t>
+          <t>- AP 이어 CPU 세력 키우는 ARM 아키텍처 글로벌 정보기술(IT) 업체의 ‘탈(脫)인텔’ 기조가 계속되고 있다. 인텔의 아키텍처 ‘x86’ 대신 ARM을 통해 자체 칩을 개발하려는 흐름이다. 은 아키텍처 성능 향상이라는...</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>24면 1단</t>
+          <t>2일 전</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>머니투데이</t>
+          <t>PC사랑</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>반도체 대란에 문 닫는 자동차 공장…"생산량 최대 710만↓"</t>
+          <t>유니씨앤씨, 삼성 갤럭시북 프로360 NT930QDY-A51A 11번가 긴급공수 8월 20일...</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>말레이시아에서는 미국의 인텔, 일본의 르네사스 등 50여 개 반도체업체의 생산공장이 운영되고 있다. 생산이 중단되는 F-150은 미국에서 가장 인기 있는 픽업트럭이자 포드의 주력 제품으로, 이번 가동중단은 포드에...</t>
+          <t xml:space="preserve"> 삼성전자 공식 파트너사 유니씨앤씨는 Super AMOLED 디스플레이와 최신 인텔 11세대 타이거레이크... 최신 인텔 11세대 코어 i5 프로세서 탑재 ▷ 16GB 메모리와 NVMe 256GB SSD 탑재 ▷ 프로 키보드와 대형 터치패드...</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>1일 전</t>
+          <t>2일 전</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>디지털데일리언론사 선정</t>
+          <t>이데일리언론사 선정</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>인텔, '차세대 GPU' TSMC 생산…삼성전자 '고배'</t>
+          <t>인텔은 왜 차세대 GPU 생산을 삼성 아닌 TSMC에 맡겼나</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>생산 인텔의 선택은 TSMC였다. 차기 그래픽처리장치(GPU) 생산을 TSMC에 위탁하기로 했다. 후보군에 올랐던 삼성전자는 고배를 마셨다. 엔비디아에 집중하면서 AMD를 공략할 것으로 보인다. 19일(현지시각) 은...</t>
+          <t>인텔이 차세대 슈퍼컴퓨터용 그래픽처리장치(GPU) 생산을 대만 TSMC에 맡기기로 했다. 그동안 삼성전자 파운드리(반도체 수탁생산)가 인텔의 GPU를 수주할 수 있다는 가능성이 나왔지만, 이 같은 관측이 정확히 빗나간...</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>1일 전</t>
+          <t>2일 전</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>PC사랑</t>
+          <t>글로벌이코노믹</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>유니씨앤씨, 삼성전자 갤럭시북 프로 NT950XDX-G51A 인터파크 쎈딜 진행</t>
+          <t>테슬라, '인공지능(AI) 데이'에 슈퍼컴퓨터 '도조'와 반도체 'D1' 발표</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>[삼성전자 갤럭시북 프로 NT950XDX-G51A 특징] ▷ AMOLED 디스플레이 탑재로 컬러볼륨 120% 지원 ▷ 1.15kg의 초경량과 초슬림 디자인 ▷ 최신 11세대 인텔 코어 i5 타이거레이크 탑재 ▷ NVIDIA GeForce MX450 외장 그래픽...</t>
+          <t>AI 모델 학습에 활용할 수 있는 반도체를 만드는 업체로는 반도체 제조사 인텔, 그래픽카드 제조사 엔비디아, 스타트업 그래프코어(Graphcore) 등이 있다. 도조는 테슬라 차량 내부의 카메라가 수집한 비디오 자료를...</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>1일 전</t>
+          <t>2일 전</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>아시아경제</t>
+          <t>뉴스투데이</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>"글로벌 반도체 업체, '증산 대비' 원재료 쌓자 재고자산 사상 최대 수준"</t>
+          <t>[주말쇼핑정보] “아듀 여름”… 홈플러스‧G마켓, 시즌오프 세일 한창</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>삼성전자, TSMC, 인텔 등 주요 세계 반도체 제조업체의 재고자산 규모가 사상 최대 수준에 달한 것으로... 20일 일본 니혼게이자이신문에 따르면 삼성전자와 SK하이닉스, TSMC, , 마이크론, 웨스턴디지털...</t>
+          <t>이번 행사에 참여한 브랜드는 △삼성전자 △애플 △HP △인텔 △DELL △레노버 △마이크로소프트 △필립스 △LG노트북 △피스넷 △ASUS △코스텔 △폴라로이드 △다이슨 △쿠진아트 △네스프레소 △동서가구 △한샘...</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>1일 전</t>
+          <t>2일 전</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>디지털데일리언론사 선정</t>
+          <t>뉴시스</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>삼성전자, 2분기 세계 반도체 1위 탈환…인텔, 사업재편 ‘총력’</t>
+          <t>인텔 CEO "반도체 통합 주체될 것…M&amp;A 지속"</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2분기 인텔을 제치고 반도체 회사 중 매출액 1위에 올랐다. 메모리반도체 가격 상승 덕이다. ▲반도체... 2위는 인텔이다. 지난 2분기 매출액은 196억3100만달러(약 22조5700억원) 영업이익은 55억4600만달러(약...</t>
+          <t>인텔의 펫 겔싱어 최고경영자(CEO)가 인텔 부흥을 위해 인수합병(M&amp;A)을 활용할 계획이라고 말했다. 19일(현지시간) 월스트리트저널(WSJ)에 따르면 겔싱어 CEO는 인터뷰에서 "반도체업계의 통합 추세는 지속될 것"이라며...</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>1일 전</t>
+          <t>2일 전</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>이코노믹리뷰</t>
+          <t>이투데이</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t xml:space="preserve">GF 인수 사실상 '무산'...인텔 "인수합병 확장 계속된다"   </t>
+          <t>겔싱어 인텔 CEO, M&amp;A에 강한 의욕…“반도체업계 통합에 주체될 것”</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 세계 3위 파운드리(반도체 위탁생산) 기업 글로벌파운드리가 미국 증권거래위원회(SEC)에 기업공개(IPO)를 신청한 것으로 알려지면서 인텔의 인수는 사실상 무산됐다. 이에 대해 의 CEO 팻 겔싱어는 "반도체 업계를...</t>
+          <t>이투데이=김나은 기자 | “인텔, 자발적인 인수자” 강조 글로버리파운드리 IPO 신청으로 M&amp;A 무산 “반도체 생산 자본 집약적...기업들 힘 합쳐야 할 가능성 커져” 팻 겔싱어 최고경영자(CEO). 로이터연합뉴스 팻...</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>1일 전</t>
+          <t>2일 전</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>글로벌경제</t>
+          <t>데일리한국</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>인텔 CEO "반도체 부문 M&amp;A 주도적으로 추진하겠다"</t>
+          <t>삼성전자, 인텔 제치고 격차 벌린다…SK하이닉스도 고성장</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>미국 반도체 메이저인 인텔이 '부흥'을 위해 인수합병(M&amp;A)을 적극 활용할 뜻을 밝혔다. 미 경제매체인 월스트리트저널(WSJ)는 19일(현지시간) 팻 겔싱어 인텔 최고경영자(CEO)를 인용해 보도했다. 미국 캘리포니아주에...</t>
+          <t>삼성 반도체, 11분기만에 인텔 누르고 매출 1위 IC인사이츠 "3분기 삼성 반도체 매출 10% 성장" SK하이닉스 매출 21% 성장, 메모리반도체 효과 [데일리한국 김언한 기자] 삼성전자가 올해 2분기 을 제치고 반도체...</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>6면 1단</t>
+          <t>2일 전</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>중앙일보</t>
+          <t>글로벌이코노믹</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>"반도체 미세공정 경쟁, 2~3 나노가 한계…이젠 3D 소자 연구"</t>
+          <t>갤싱어 인텔 CEO “반도체 파운드리 기업 인수에 최선"</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2022년 본격 양산에 돌입.’(8월4일) ‘인텔, 2024년에 2나노급 ‘20A’ 반도체 양산해 현재 앞서 있는... 버클리대 첸밍후 교수의 연구를 바탕으로 2011년 인텔이 22nm에서 핀펫(FinFETㆍFin field-effect transistor) 구조를...</t>
+          <t>반도체 업계에서 의욕적인 구매자로 불리는 펫 겔싱어(Pat Gelsinger) 인텔 최고경영자(CEO)가... 지난 2월에 인털 CEO로 취임한 갤싱어는 WSJ과 인터뷰에서 “업계에 통합 흐름이 지속될 것”이라며 “회사()의...</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>1일 전</t>
+          <t>2일 전</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>천지일보</t>
+          <t>이투데이</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>인텔, 파운드리 TSMC에 맡기고 그래픽카드 시장 진출</t>
+          <t>글로벌 메이저 반도체 기업, 폭증하는 수요에 재고자산 사상 최대</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>인텔이 슈퍼컴퓨터용 그래픽처리장치(GPU) 파운드리(위탁생산)을 대만 TSMC에 맡기고 그래픽카드 시장에 진출한다. 19일(현지시각) 인텔은 TSMC와의 파트너십을 포함한 GPU 전략의 세부사항을 공개했다. 은...</t>
+          <t>이투데이=배준호 기자 | 삼성·인텔 등 9개사 재고자산, 6월 말 기준 76조원 달해 생산 대폭 늘리고자 원재료... 조사 대상은 우리나라의 삼성전자와 SK하이닉스, 대만 TSMC, 미국 과 마이크론테크놀로지, 웨스턴디지털...</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>1일 전</t>
+          <t>2일 전</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>이코노믹리뷰</t>
+          <t>이데일리언론사 선정</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>[좋거나, 갈리거나, 애매하거나③] 잘 나가는데 불안해...중후장대(重厚長大)</t>
+          <t>삼성 '美 제2반도체 공장' 종착지는 뉴욕?…JY 결단에 쏠리는 눈</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>높지만, 인텔 및 TSMC 등 반도체 기업들은 내년이 되어도 반도체 품귀 현상을 완전히 해결할 수 없다고 말한다. 실제로 팻 겔싱어 인텔 CEO는 2분기 실적발표 현장에서 "글로벌 반도체 품귀 현상은 2023년까지 이어질 것...</t>
+          <t>오는 2024년 삼성전자의 경쟁자인 대만 TSMC·미국 인텔의 미국 내 파운드리 공장이 준공될 것으로 보이는 가운데 이 부회장의 경영 복귀와 맞물려 삼성전자의 투자시계가 빨라질 것이란 기대가 커지면서다. 인센티브...</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>1일 전</t>
+          <t>2일 전</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>헤럴드경제</t>
+          <t>씨넷코리아</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>인텔, 인수·합병으로 부흥 나선다…CEO “우리는 통합의 주체”</t>
+          <t>[유기자의 차이나샵#] 리얼미, 자사 첫 노트북 '리얼미북' 발표K 화면에 1.38...</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>미국 반도체 기업 인텔의 팻 겔싱어 최고경영자(CEO)가 인텔의 부흥을 위해 인수합병(M&amp;A)을 활용할 계획이라고 밝혔다. 19일(현지시간) 월스트리트저널(WSJ)에 따르면 겔싱어 CEO는 인터뷰에서 “(반도체) 산업에서 합병이...</t>
+          <t>100% sRGB, 1500:1의 명암비, 400nits 피크 휘도를 지원해 학습, 사무, 엔터테인먼트 등 다양한 상황에 맞춰 사용할 수 있다.인텔 11세대 코어 프로세서 i5-1135G7이 탑재된 이 제품은 얇기가 14.9cm, 8GB 램 버전...</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>1일 전</t>
+          <t>2일 전</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>오피니언뉴스</t>
+          <t>테크M</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>인텔 CEO "회사부흥 위해 M&amp;A 활용계획"···우리는 통합주체</t>
+          <t>글로벌 반도체 1위 = 삼성전자</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>팻 겔싱어 인텔 최고경영자(CEO)가 19일(현지시간) 월스트리트저널(WSJ)과 인터뷰에서 기업 부흥을 위해 인수합병(M&amp;A)을 활용할 계획이라고 밝혔다. 월스트리트저널  미국 반도체 기업 의 팻 겔싱어 최고경영자(CEO)...</t>
+          <t>이재용 삼성전자 부회장/캐리커쳐=디미닛 삼성전자가 올해 2분기 글로벌 반도체 시장에서 인텔을... 반면, 10분기 연속 세계 반도체 매출 1위 자리를 지켜오던 미국의 (Intel)은 전분기 대비 3% 성장에 그친...</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>1일 전</t>
+          <t>2일 전</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>케이벤치</t>
+          <t>공공뉴스</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>인텔 앨더레이크 공개, 로켓레이크 대비 19% 향상된 IPC 제공</t>
+          <t>삼성전자, 2Q 글로벌 반도체 시장 1위 탈환..2018년 3Q 이후 11분기만</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>인텔에서 자사의 차세대 CPU인 앨더레이크와 관련하여 IPC 성능 향상 정보를 일부 공개했다. 금번 공개된 자료는 인텔 아키텍처데이 2021에서 공식 공개된 자료로 자사의 Xe 그래픽부터, 앞서 언급한 차세대...</t>
+          <t>삼성전자가 지난 2018년 3분기 이후 11분기 만에 글로벌 반도체 시장에서 인텔을 제치고 1위에 이름을... 반대로 10분기 연속 1위 자리를 지킨 인텔은 매출 193억 달러로 직전 분기보다 3% 성장에 그치며 2위로...</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>1일 전</t>
+          <t>2일 전</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>테크M</t>
+          <t>매일경제TV</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>[같이사소] 악기부터 뮤지컬까지, 독특한 기획전의 유혹...쿠팡-티몬-G마켓으...</t>
+          <t>[오늘의 올림'Pick'] SKC·테스나·엔씨소프트·아톤</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>이번 행사에 참여한 브랜드는 ▲삼성전자 ▲애플 ▲HP ▲인텔 ▲DELL ▲레노버 ▲마이크로소프트 ▲필립스 ▲LG노트북 ▲피스넷 ▲ASUS ▲코스텔 ▲폴라로이드 ▲다이슨 ▲쿠진아트 ▲네스프레소 ▲동서가구 ▲한샘...</t>
+          <t>중 - 인텔 글로벌파운드리 인수 쉽지 않을 듯 - 글로벌 파운드리 미국 증시 독자 IPO 추진 - 삼성전자의 파운드리 사업 강화 움직임 최대 수혜주 ▶ 엔씨소프트(036570) - 일정 상 기대치 상승…바닥권 탈출 의미 부여...</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>1일 전</t>
+          <t>2일 전</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2357,298 +2357,298 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>인텔, 데이터센터·인공지능·클라이언트 컴퓨팅용 아키텍처 대거 공개</t>
+          <t>루닛 AI 인사이트 CXR에 인텔 '오픈비노' 적용… CPU 기반에서 신속한 의료 인...</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>인텔 가속 컴퓨팅 시스템 및 그래픽 그룹의 수석 부사장 겸 총책임자인 라자 코두리(Raja Koduri)가 Intel... (사진:인텔) 아키텍처는 하드웨어와 소프트웨어의 연금술이라고 한다. 특정 엔진에 가장 적합한...</t>
+          <t>인텔(한국대표 권명숙)과 의료 인공지능(AI) 기업 루닛 (대표 서범석)이 기술 협업을 통해 자사 기술의 서비스 범위와 고객층을 확대한다. 루닛은 자사의 폐 질환 진단 보조 AI 소프트웨어 '루닛 인사이트 CXR'이 의...</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>1일 전</t>
+          <t>2일 전</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>조선비즈</t>
+          <t>아시아타임즈</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>인텔, 차세대 GPU 파운드리 TSMC에 맡겨</t>
+          <t>TSMC 손잡은 인텔, 그래픽카드 재도전…'양강구도' 깰까</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>인텔이 슈퍼컴퓨터용 그래픽처리장치(GPU) 파운드리(위탁생산)을 대만 TSMC에 맡기기로 했다. 그동안 삼성전자 파운드리가 인텔의 GPU를 수주할 수 있다는 가능성도 나왔지만, TSMC가 외주 물량 전부를 가져간...</t>
+          <t>기자] 인텔이 대만 파운드리 업체 TSMC와 손잡고 1998년 이후 20여년 만에 외장 '그래픽카드' 시장에 재진입한다. 엔비디아와 AMD로 양분된 시장에 도전장을 낸 것이다. 은 19일(현지시간) 온라인에서 '2021 아키텍처...</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>1일 전</t>
+          <t>2일 전</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>연합뉴스</t>
+          <t>연합뉴스언론사 선정</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>인텔 CEO "우리는 통합의 주체"…반도체 M&amp;A 의지 피력</t>
+          <t>첨단 퀀텀컴퓨터 기술의 산실…구글 '퀀텀 AI 캠퍼스' 둘러보니</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>미국 반도체 기업 인텔의 팻 겔싱어 최고경영자(CEO)가 인텔의 부흥을 위해 인수합병(M&amp;A)을 활용할 계획이라고 밝혔다고 미 경제매체인 월스트리트저널(WSJ)이 19일(현지시간) 보도했다. 겔싱어 CEO는 저널과 인터뷰에서...</t>
+          <t>구글 외에도 IBM과 마이크로소프트, 인텔 등 세계적 정보기술(IT) 기업들이 이를 연구하는 중이다. 구글은 양자 컴퓨터 개발에서 선도적 위치에 선 것으로 평가되고 있다. 2019년에는 슈퍼컴퓨터로 1만년 걸리는 연산을...</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>1일 전</t>
+          <t>2일 전</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>PC사랑</t>
+          <t>케이벤치</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>중학생부터 대학생까지 삼성 가성비 노트북 갤럭시북 프로 NT950XDY-A38A</t>
+          <t>2년전 CPU가 여전히 조립 PC로 팔린다?, 과연 프리미엄 게이밍 PC일까..</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>최신 인텔 코어 11세대 CPU 타이거레이크가 탑재되어 더 업그레이드된 퍼포먼스를 보여준다. 노트북... 제원 운영체제: 윈도우 미포함 (Console Linux) CPU: 인텔 코어 i3-1115G4 (2코어 4스레드, 3.0GHz~4.1GHz, L3 캐시...</t>
+          <t>현시점 인텔의 11세대 CPU와 AMD의 경우 라이젠 5000 시리즈로 시대의 흐름이 바뀐 상황속에, 과연 구형... 벤치마크 결과 대부분의 모든 게임에 있어 인텔 구형 i5 9400F는 자사의 최신 CPU인 i5 11400F는 물론 경쟁사...</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>1일 전</t>
+          <t>2일 전</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>이데일리</t>
+          <t>IT조선</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>인텔, TSMC와 손잡고 엔비디아에 도전장</t>
+          <t>인텔 CEO, 반도체 M&amp;A 추진 재차 강조</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>인텔이 대만 파운드리 업체 TSMC와의 파트너십을 맺고 그래픽카드(GPU) 업계 1위인 엔비디아에 도전장을 던졌다. (사진= AFP) 인텔이 대만 반도체 파운드리(위탁생산) 업체 TSMC와 손잡고 그래픽처리장치(GPU) 업계 1위인...</t>
+          <t>팻 겔싱어 인텔 최고경영자(CEO)가 반도체 기업 인수합병(M&amp;A) 추진을 재차 강조했다. 글로벌 반도체 합종연횡이 지속하는 가운데 인텔이 통합의 주체가 되겠다는 의지의 표현이다. 19일(이하 현지시각) 겔싱어 CEO는...</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>1일 전</t>
+          <t>2일 전</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>디지털데일리언론사 선정</t>
+          <t>서울경제언론사 선정</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>[취재수첩] 대만 언론, 삼성전자 비판 강화…왜?</t>
+          <t>삼성전자, 3분기도 인텔 제치고 반도체 1위 유력</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2nm 반도체부터 도입하는 TSMC 인텔과 달리 삼성전자는 3nm 제품부터 GAA를 적용한다. 공정이 바뀐 만큼 양산화 작업이 쉽지 않을 것이라는 전망이다. 하지만 이미 미국 반도체 설계자동화(EDA) 업체 시놉시스는...</t>
+          <t>삼성전자가 지난 2분기 미국 인텔을 제치고 매출 1위 반도체 기업에 올랐다. 지난 2018년 3분기 이후 약... 3분기 역시 삼성전자 매출은 인텔을 압도할 것으로 전망된다. 20일 시장조사업체 IC인사이츠에 따르면...</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>1일 전</t>
+          <t>2일 전</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>이데일리</t>
+          <t>KOTRA해외시장뉴스</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>인텔 CEO "파운드리 기업 인수 계속 모색할 것"</t>
+          <t>미국 IT기업의 자동차 산업 디지털 전환 가속</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>“다른 반도체 파운드리(위탁생산) 업체를 인수하기 위해 최선을 다하고 있다.” 지난 2월 8번째 인텔... 인텔은 지난 3월 “파운드리 시장에 본격 뛰어들겠다”고 선언한 뒤 글로벌파운드리 인수를 추진해 왔다....</t>
+          <t>- 구글, 아마존, 인텔 등 빅테크의 자율차 개발 가속 - - IT기업, 완성차 업계와 기술협력도 병행... 죽스의 자율주행 기술이 적용된 자율주행 택시 자료: 죽스 반도체 기업 (Intel)은 자율주행기술...</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>1일 전</t>
+          <t>2일 전</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>IT비즈뉴스</t>
+          <t>데일리안</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>루닛, 인텔 '오픈비노' 적용한 의료AI 시스템 구현</t>
+          <t>팻 겔싱어 인텔 CEO “반도체 통합 주체 될 것…M&amp;A 적극 활용”</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>루닛 인사이트 CXR 판독 화면 의료AI기업 루닛이 인텔과의 기술 협업을 추진한다. 진단보조 AI소프트웨어(SW) '루닛 인사이트 CXR'에 인텔의 오픈비노(OpenVINO) 기술을 적용한 시스템 구축이 주요 골자다. 오픈비노는...</t>
+          <t>팻 겔싱어 인텔 최고경영자(CEO)가 반도체 기업 인수합병(M&amp;A) 의지를 다시 한 번 피력했다. 인텔의 부흥을 위해 M&amp;A를 적극 활용한다는 계획이다. 19일(현지시간) 월스트리트저널(WSJ)에 따르면 겔싱어 CEO는 인터뷰에서...</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>1일 전</t>
+          <t>2일 전</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>경기신문</t>
+          <t>한국금융신문</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>삼성전자, 인텔·TSMC 제치고 세계 반도체 공급업체 1위</t>
+          <t>삼성전자, 메모리 강세에 11분기만에 글로벌 매출 ‘1위’</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>삼성전자가 인텔과 TSMC를 제치고 올해 2분기 세게 최대 반도체 공급업체로 올라섰다. 19일(현지시간)... 2위에는 미국 인텔이 193억달러(22조6522억원)를 기록했으나 전분기 대비 3% 성장에 그쳤다. 3위로는 대만의...</t>
+          <t>반면, 10분기 연속 1위를 차지하던 인텔은 전 분기 대비 3% 증가한 193억달러를 기록하며, 2위로... 이후 메모리 가격이 점차 하락하면서 10분기 연속 인텔에 1위 자리를 내줬다. 파운드리 1위 업체인 대만의 TSMC의...</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>1일 전</t>
+          <t>2일 전</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>의학신문</t>
+          <t>데일리안</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>루닛, 인텔과 협력…CPU 기반 AI SW 확대 제공</t>
+          <t>삼성전자, 인텔 제치고 세계 반도체 1위 탈환</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 의료 AI 기업 루닛(대표 서범석)은 글로벌 반도체 업체 인텔과의 기술 협업을 통해 자사 기술의 서비스... CXR'이 인텔의 '오픈비노(OpenVINO)' 기술을 적용, GPU를 넘어 CPU 기반에서도 신속한 데이터 처리가 가능한...</t>
+          <t>삼성전자가 올해 2분기 전 세계 반도체 시장에서 인텔을 제치고 1위를 탈환한 것으로 나타났다. 지난... 지속되며 인텔에 1위 자리를 내줘야 했다. 반면 지난 10분기 연속 1위 자리를 지켜왔던 미국 은...</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>1일 전</t>
+          <t>2일 전</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>ZDNet Korea언론사 선정</t>
+          <t>헤럴드경제</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>삼성전자, 인텔 제치고 세계 반도체 시장 1위 올라</t>
+          <t>“ICT기업, 탄소중립 부담 갈수록 커져...‘에너지 자유거래’ 필요” [유웅환...</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>삼성전자가 지난 2분기 매출 기준으로 인텔을 추월해 세계 반도체 시장 1위 자리에 올랐다. 2018년 3분기... 삼성전자 서초사옥(사진=뉴스원) 반면, 10분기 연속 세계 반도체 매출 1위 자리를 지켜오던 미국의 은...</t>
+          <t>인텔, 삼성전자, 현대자동차 등에서 반도체 전문가로 일하다 2017년, 문재인 선거 캠프에 영입돼 ‘사람중심 4차산업혁명’ 정책 설계를 담당했다. 당시 공정, 창의, 사람중심 문화를 역설했던 그와 지난 5일 서울 중구...</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>1일 전</t>
+          <t>2일 전</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>초이스경제</t>
+          <t>헤럴드경제</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>美 반도체 지수 '반등' 이어...삼성전자 · SK하이닉스 '강세 출발'</t>
+          <t>‘넷제로’ 개념없던 20년전 데이터전송 탄소감축 연구</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>종목별로는 엔비디아(+3.98%), AMD(+0.25%), 인텔(+0.48%) 등이 올랐고 마이크론 테크놀러지(-0.48%)는 하락했다. 한편 나스닥100 지수 선물은 한국시각 오전 9시 5분 기준 -0.09%를 기록 중이다. 초이스경제는 그러나 "이...</t>
+          <t>한국 토종 박사였던 그는 독창적인 논문 주제 덕에 IBM, 인텔, 필립스반도체 등 유수의 글로벌 회사로부터 러브콜을 받았다. 이후 인텔로 자리를 옮겨 10년간 일하면서 현재 인텔 코어 시리즈의 뼈대가 된 ‘네할렘’...</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>1일 전</t>
+          <t>2일 전</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>아시아경제언론사 선정</t>
+          <t>아주경제</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>인텔, 글로벌파운드리 인수 무산에도 "M&amp;A 계속 추진‥합종연횡 필요"</t>
+          <t>"말레이發 반도체 악재" 中 자동차 생산량 반토막 예상</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>미국 반도체 업체 인텔이 인수합병을 통해 몸집을 불리겠다는 의지를 표명했다. 반도체 부족 현상이 곧 해소되지 않을 것이라는 예상도 내놓았다. 팻 갤싱어 인텔 최고경영자(CEO)는 19일(현지시간) 월스트리트저널과...</t>
+          <t>인피니온, ST마이크로일렉트로닉스, 인텔, 엔엑스피NXP), 텍사스인스트루먼트, 온세미 등 50여개 글로벌 반도체 기업이 이곳에 공장을 운영 중이다.  하지만 코로나19 장기 봉쇄령으로 언제든 생산 가동이 중단될 수...</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>1일 전</t>
+          <t>2일 전</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>뉴스1</t>
+          <t>SBS Biz</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>삼성, 세계 반도체 시장 1위 탈환…11분기 만에 인텔 제쳤다</t>
+          <t>인텔 CEO, 글로벌파운드리 인수 무산에도 "M&amp;A 작업 지속"</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>삼성전자가 올해 2분기 글로벌 반도체 시장에서 인텔을 제치고 1위 자리를 재탈환한 것으로 나타났다.... 반면, 10분기 연속 세계 반도체 매출 1위 자리를 지켜오던 미국의 (Intel)은 전분기 대비 3% 성장에...</t>
+          <t>미국 반도체 기업 인텔의 팻 겔싱어 최고경영자(CEO)가 인텔의 부흥을 위해 인수합병(M&amp;A)을 활용할 계획이라고 밝혔습니다. 겔싱어 CEO는 19일(현지시간) 월스트리트저널(WSJ)과의 인터뷰에서 "반도체 업계의 통합...</t>
         </is>
       </c>
     </row>
